--- a/static/导入模板.xlsx
+++ b/static/导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="22890" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -40,7 +34,7 @@
     <t>moduleid</t>
   </si>
   <si>
-    <t>myself</t>
+    <t>mgself</t>
   </si>
   <si>
     <t>gameType</t>
@@ -55,12 +49,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>支持设备,PC/MOBIEL</t>
-  </si>
-  <si>
-    <t>游戏平台类型</t>
-  </si>
-  <si>
     <t>游戏ID</t>
   </si>
   <si>
@@ -76,16 +64,20 @@
     <t>线注</t>
   </si>
   <si>
-    <t>moduleid(MG)</t>
-  </si>
-  <si>
-    <t>MG自有品牌,1/0</t>
-  </si>
-  <si>
-    <t>gameType(TTG)</t>
-  </si>
-  <si>
-    <t>gameName(TTG)</t>
+    <t>moduleid(MG)
+MG老虎机</t>
+  </si>
+  <si>
+    <t>MG自有品牌,1/0
+MG老虎机</t>
+  </si>
+  <si>
+    <t>gameType
+TTG老虎机</t>
+  </si>
+  <si>
+    <t>gameName
+TTG老虎机</t>
   </si>
   <si>
     <t>支持试玩,1/0</t>
@@ -94,28 +86,19 @@
     <t>备注</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>dt1</t>
-  </si>
-  <si>
-    <t>dtcode2</t>
-  </si>
-  <si>
-    <t>dt-inser2</t>
-  </si>
-  <si>
-    <t>sadfkjlas</t>
-  </si>
-  <si>
-    <t>dt2</t>
-  </si>
-  <si>
-    <t>dt3</t>
+    <t>dragonball</t>
+  </si>
+  <si>
+    <t>赛亚烈战</t>
+  </si>
+  <si>
+    <t>Saiyan Battle</t>
+  </si>
+  <si>
+    <t>shokudo</t>
+  </si>
+  <si>
+    <t>深夜食堂</t>
   </si>
 </sst>
 </file>
@@ -128,7 +111,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,17 +120,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,46 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,11 +170,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,51 +264,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,13 +279,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,31 +375,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,143 +465,93 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,33 +572,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,18 +615,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,139 +648,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1054,218 +1128,935 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" ht="65" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" ht="66" customHeight="1" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" ht="15" spans="1:10">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E3" s="7">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>34</v>
-      </c>
-      <c r="I3">
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>25</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>34</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="5" ht="15" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="15" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="15" spans="1:5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="15" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="15" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="15" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" ht="15" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" ht="15" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" ht="15" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" ht="15" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" ht="15" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" ht="15" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" ht="15" spans="1:5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" ht="15" spans="1:5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" ht="15" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" ht="15" spans="1:5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" ht="15" spans="1:5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" ht="15" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" ht="15" spans="1:5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" ht="15" spans="1:5">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" ht="15" spans="1:5">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" ht="15" spans="1:5">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" ht="15" spans="1:5">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" ht="15" spans="1:5">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" ht="15" spans="1:5">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" ht="15" spans="1:5">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" ht="15" spans="1:5">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" ht="15" spans="1:5">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" ht="15" spans="1:5">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" ht="15" spans="1:5">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" ht="15" spans="1:5">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" ht="15" spans="1:5">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" ht="15" spans="1:5">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" ht="15" spans="1:5">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" ht="15" spans="1:5">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" ht="15" spans="1:5">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" ht="15" spans="1:5">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" ht="15" spans="1:5">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" ht="15" spans="1:5">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" ht="15" spans="1:5">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" ht="15" spans="1:5">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" ht="15" spans="1:5">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" ht="15" spans="1:5">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" ht="15" spans="1:5">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" ht="15" spans="1:5">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" ht="15" spans="1:5">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" ht="15" spans="1:5">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" ht="15" spans="1:5">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" ht="15" spans="1:5">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" ht="15" spans="1:5">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" ht="15" spans="1:5">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" ht="15" spans="1:5">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" ht="15" spans="1:5">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" ht="15" spans="1:5">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" ht="15" spans="1:5">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" ht="15" spans="1:5">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" ht="15" spans="1:5">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" ht="15" spans="1:5">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" ht="15" spans="1:5">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" ht="15" spans="1:5">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" ht="15" spans="1:5">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" ht="15" spans="1:5">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" ht="15" spans="1:5">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" ht="15" spans="1:5">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" ht="15" spans="1:5">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" ht="15" spans="1:5">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" ht="15" spans="1:5">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" ht="15" spans="1:5">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" ht="15" spans="1:5">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" ht="15" spans="1:5">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" ht="15" spans="1:5">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" ht="15" spans="1:5">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" ht="15" spans="1:5">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" ht="15" spans="1:5">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" ht="15" spans="1:5">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" ht="15" spans="1:5">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" ht="15" spans="1:5">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" ht="15" spans="1:5">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" ht="15" spans="1:5">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" ht="15" spans="1:5">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" ht="15" spans="1:5">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" ht="15" spans="1:5">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" ht="15" spans="1:5">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" ht="15" spans="1:5">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" ht="15" spans="1:5">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" ht="15" spans="1:5">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" ht="15" spans="1:5">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" ht="15" spans="1:5">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" ht="15" spans="1:5">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" ht="15" spans="1:5">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" ht="15" spans="1:5">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" ht="15" spans="1:5">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" ht="15" spans="1:5">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" ht="15" spans="1:5">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" ht="15" spans="1:5">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" ht="15" spans="1:5">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" ht="15" spans="1:5">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" ht="15" spans="1:5">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" ht="15" spans="1:5">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" ht="15" spans="1:5">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" ht="15" spans="1:5">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" ht="15" spans="1:5">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" ht="15" spans="1:5">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" ht="15" spans="1:5">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" ht="15" spans="1:5">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" ht="15" spans="1:5">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" ht="15" spans="1:5">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" ht="15" spans="1:5">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" ht="15" spans="1:5">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" ht="15" spans="1:5">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" ht="15" spans="1:5">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" ht="15" spans="1:5">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" ht="15" spans="1:5">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
